--- a/2.3_results.xlsx
+++ b/2.3_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cai-b\Documents\CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB04DAB-8D26-4404-B223-05BA6AB5745B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584D298C-8FD2-41FF-9EB6-0E2FDFFE5215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23415" yWindow="7035" windowWidth="38700" windowHeight="15435" xr2:uid="{5542B1E5-CB61-40D5-A222-9B70A32C289E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Accuracy</t>
   </si>
@@ -54,10 +54,31 @@
     <t>Without Chi</t>
   </si>
   <si>
-    <t>With Chi</t>
-  </si>
-  <si>
     <t>Chi-squared size</t>
+  </si>
+  <si>
+    <t>With Chi = 500</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>macro avg</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
   </si>
 </sst>
 </file>
@@ -113,13 +134,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -437,15 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C959ADDD-66CF-41E8-8C22-92ADA5F03842}">
-  <dimension ref="A3:R17"/>
+  <dimension ref="A3:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="F20" sqref="F20:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -489,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>0</v>
@@ -535,7 +565,7 @@
       <c r="L6" s="2">
         <v>0.69132290184921696</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="6">
         <v>1000</v>
       </c>
       <c r="O6" s="2">
@@ -582,7 +612,7 @@
       <c r="L7" s="2">
         <v>0.74425287356321801</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <v>750</v>
       </c>
       <c r="O7" s="2">
@@ -629,7 +659,7 @@
       <c r="L8" s="2">
         <v>0.72413793103448199</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="6">
         <v>500</v>
       </c>
       <c r="O8" s="2">
@@ -676,7 +706,7 @@
       <c r="L9" s="2">
         <v>0.71866295264623903</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="6">
         <v>250</v>
       </c>
       <c r="O9" s="2">
@@ -723,7 +753,7 @@
       <c r="L10" s="2">
         <v>0.71407837445573297</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <v>150</v>
       </c>
       <c r="O10" s="2">
@@ -770,7 +800,7 @@
       <c r="L11" s="2">
         <v>0.72278664731494902</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <v>100</v>
       </c>
       <c r="O11" s="2">
@@ -817,7 +847,7 @@
       <c r="L12" s="2">
         <v>0.74537695590327102</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <v>75</v>
       </c>
       <c r="O12" s="2">
@@ -864,7 +894,7 @@
       <c r="L13" s="2">
         <v>0.72285714285714198</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="6">
         <v>50</v>
       </c>
       <c r="O13" s="2">
@@ -911,7 +941,7 @@
       <c r="L14" s="2">
         <v>0.70299727520435895</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <v>25</v>
       </c>
       <c r="O14" s="2">
@@ -958,7 +988,7 @@
       <c r="L15" s="2">
         <v>0.73854447439352999</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="6">
         <v>10</v>
       </c>
       <c r="O15" s="2">
@@ -1013,6 +1043,119 @@
         <f>AVERAGE(L6:L15)</f>
         <v>0.72250175292221397</v>
       </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="5"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="5"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="5"/>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5"/>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
